--- a/SUN & SOAP test case.xlsx
+++ b/SUN & SOAP test case.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\minha\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\SQA\GIT\Test Case Reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1519BB3D-A916-4D2B-B767-E9EB09812BB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF755555-D0BB-4CDF-91C3-5F174EB86675}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AED24FB5-06A0-404B-B9AC-47391D2641A3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{AED24FB5-06A0-404B-B9AC-47391D2641A3}"/>
   </bookViews>
   <sheets>
     <sheet name="Test Scenerio" sheetId="1" r:id="rId1"/>
@@ -676,9 +676,6 @@
     <t xml:space="preserve">Password Showed </t>
   </si>
   <si>
-    <t>P{assword Showed</t>
-  </si>
-  <si>
     <t>Open The Email in any Web browser and user should be on the Email inbox section</t>
   </si>
   <si>
@@ -689,6 +686,9 @@
   </si>
   <si>
     <t>28-2-2022</t>
+  </si>
+  <si>
+    <t>Password Showed</t>
   </si>
 </sst>
 </file>
@@ -1355,13 +1355,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="40% - Accent1" xfId="4" builtinId="31"/>
@@ -1686,8 +1686,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B996E68-6141-4172-8E66-7C70DE9A3ECC}">
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1718,13 +1718,13 @@
       <c r="E1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="50" t="s">
+      <c r="F1" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="48" t="s">
+      <c r="G1" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="48"/>
+      <c r="H1" s="50"/>
     </row>
     <row r="2" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
@@ -1736,14 +1736,14 @@
       <c r="C2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="49" t="s">
-        <v>153</v>
+      <c r="D2" s="48" t="s">
+        <v>152</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="49" t="s">
-        <v>153</v>
+      <c r="F2" s="48" t="s">
+        <v>152</v>
       </c>
       <c r="G2" s="8" t="s">
         <v>8</v>
@@ -1860,8 +1860,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61C4C5BB-2150-4924-8671-5BD524729F03}">
   <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="BE20" sqref="BE20"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1937,10 +1937,10 @@
         <v>138</v>
       </c>
       <c r="I2" s="41" t="s">
+        <v>150</v>
+      </c>
+      <c r="J2" s="42" t="s">
         <v>151</v>
-      </c>
-      <c r="J2" s="42" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="204" customHeight="1" x14ac:dyDescent="0.25">
@@ -1969,10 +1969,10 @@
         <v>138</v>
       </c>
       <c r="I3" s="41" t="s">
+        <v>150</v>
+      </c>
+      <c r="J3" s="42" t="s">
         <v>151</v>
-      </c>
-      <c r="J3" s="42" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="210" x14ac:dyDescent="0.25">
@@ -1986,7 +1986,7 @@
         <v>68</v>
       </c>
       <c r="D4" s="38" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E4" s="43" t="s">
         <v>85</v>
@@ -2001,10 +2001,10 @@
         <v>139</v>
       </c>
       <c r="I4" s="41" t="s">
+        <v>150</v>
+      </c>
+      <c r="J4" s="42" t="s">
         <v>151</v>
-      </c>
-      <c r="J4" s="42" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="171.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2033,10 +2033,10 @@
         <v>140</v>
       </c>
       <c r="I5" s="45" t="s">
+        <v>150</v>
+      </c>
+      <c r="J5" s="42" t="s">
         <v>151</v>
-      </c>
-      <c r="J5" s="42" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="150" x14ac:dyDescent="0.25">
@@ -2065,10 +2065,10 @@
         <v>138</v>
       </c>
       <c r="I6" s="41" t="s">
+        <v>150</v>
+      </c>
+      <c r="J6" s="42" t="s">
         <v>151</v>
-      </c>
-      <c r="J6" s="42" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="180" x14ac:dyDescent="0.25">
@@ -2097,10 +2097,10 @@
         <v>141</v>
       </c>
       <c r="I7" s="41" t="s">
+        <v>150</v>
+      </c>
+      <c r="J7" s="42" t="s">
         <v>151</v>
-      </c>
-      <c r="J7" s="42" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="190.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2129,10 +2129,10 @@
         <v>142</v>
       </c>
       <c r="I8" s="41" t="s">
+        <v>150</v>
+      </c>
+      <c r="J8" s="42" t="s">
         <v>151</v>
-      </c>
-      <c r="J8" s="42" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="195" x14ac:dyDescent="0.25">
@@ -2161,10 +2161,10 @@
         <v>138</v>
       </c>
       <c r="I9" s="41" t="s">
+        <v>150</v>
+      </c>
+      <c r="J9" s="42" t="s">
         <v>151</v>
-      </c>
-      <c r="J9" s="42" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="195" x14ac:dyDescent="0.25">
@@ -2196,7 +2196,7 @@
         <v>17</v>
       </c>
       <c r="J10" s="42" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="195" x14ac:dyDescent="0.25">
@@ -2223,10 +2223,10 @@
       </c>
       <c r="H11" s="47"/>
       <c r="I11" s="41" t="s">
+        <v>150</v>
+      </c>
+      <c r="J11" s="42" t="s">
         <v>151</v>
-      </c>
-      <c r="J11" s="42" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="195" x14ac:dyDescent="0.25">
@@ -2258,7 +2258,7 @@
         <v>17</v>
       </c>
       <c r="J12" s="42" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="195" x14ac:dyDescent="0.25">
@@ -2287,10 +2287,10 @@
         <v>138</v>
       </c>
       <c r="I13" s="41" t="s">
+        <v>150</v>
+      </c>
+      <c r="J13" s="42" t="s">
         <v>151</v>
-      </c>
-      <c r="J13" s="42" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="195" x14ac:dyDescent="0.25">
@@ -2319,10 +2319,10 @@
         <v>145</v>
       </c>
       <c r="I14" s="41" t="s">
+        <v>150</v>
+      </c>
+      <c r="J14" s="42" t="s">
         <v>151</v>
-      </c>
-      <c r="J14" s="42" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="195" x14ac:dyDescent="0.25">
@@ -2351,10 +2351,10 @@
         <v>146</v>
       </c>
       <c r="I15" s="41" t="s">
+        <v>150</v>
+      </c>
+      <c r="J15" s="42" t="s">
         <v>151</v>
-      </c>
-      <c r="J15" s="42" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="195" x14ac:dyDescent="0.25">
@@ -2383,10 +2383,10 @@
         <v>147</v>
       </c>
       <c r="I16" s="41" t="s">
+        <v>150</v>
+      </c>
+      <c r="J16" s="42" t="s">
         <v>151</v>
-      </c>
-      <c r="J16" s="42" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="195" x14ac:dyDescent="0.25">
@@ -2415,10 +2415,10 @@
         <v>138</v>
       </c>
       <c r="I17" s="41" t="s">
+        <v>150</v>
+      </c>
+      <c r="J17" s="42" t="s">
         <v>151</v>
-      </c>
-      <c r="J17" s="42" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="195" x14ac:dyDescent="0.25">
@@ -2447,10 +2447,10 @@
         <v>143</v>
       </c>
       <c r="I18" s="41" t="s">
+        <v>150</v>
+      </c>
+      <c r="J18" s="42" t="s">
         <v>151</v>
-      </c>
-      <c r="J18" s="42" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="180" x14ac:dyDescent="0.25">
@@ -2479,10 +2479,10 @@
         <v>120</v>
       </c>
       <c r="I19" s="41" t="s">
+        <v>150</v>
+      </c>
+      <c r="J19" s="42" t="s">
         <v>151</v>
-      </c>
-      <c r="J19" s="42" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="120" x14ac:dyDescent="0.25">
@@ -2511,10 +2511,10 @@
         <v>138</v>
       </c>
       <c r="I20" s="41" t="s">
+        <v>150</v>
+      </c>
+      <c r="J20" s="42" t="s">
         <v>151</v>
-      </c>
-      <c r="J20" s="42" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="120" x14ac:dyDescent="0.25">
@@ -2541,10 +2541,10 @@
         <v>138</v>
       </c>
       <c r="I21" s="41" t="s">
+        <v>150</v>
+      </c>
+      <c r="J21" s="42" t="s">
         <v>151</v>
-      </c>
-      <c r="J21" s="42" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="165" x14ac:dyDescent="0.25">
@@ -2573,10 +2573,10 @@
         <v>148</v>
       </c>
       <c r="I22" s="41" t="s">
+        <v>150</v>
+      </c>
+      <c r="J22" s="42" t="s">
         <v>151</v>
-      </c>
-      <c r="J22" s="42" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="180" x14ac:dyDescent="0.25">
@@ -2602,13 +2602,13 @@
         <v>137</v>
       </c>
       <c r="H23" s="40" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="I23" s="41" t="s">
+        <v>150</v>
+      </c>
+      <c r="J23" s="42" t="s">
         <v>151</v>
-      </c>
-      <c r="J23" s="42" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="195" x14ac:dyDescent="0.25">
@@ -2637,10 +2637,10 @@
         <v>138</v>
       </c>
       <c r="I24" s="41" t="s">
+        <v>150</v>
+      </c>
+      <c r="J24" s="42" t="s">
         <v>151</v>
-      </c>
-      <c r="J24" s="42" t="s">
-        <v>152</v>
       </c>
     </row>
   </sheetData>
